--- a/biology/Zoologie/Abax/Abax.xlsx
+++ b/biology/Zoologie/Abax/Abax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les représentants du genre Abax sont des Carabes de taille assez grande (2 cm environ) et de couleur généralement noire, aux élytres fortement striés en long. Le genre comporte une centaine d'espèces et sous-espèces dans l'ensemble de la zone holarctique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les représentants du genre Abax sont des Carabes de taille assez grande (2 cm environ) et de couleur généralement noire, aux élytres fortement striés en long. Le genre comporte une centaine d'espèces et sous-espèces dans l'ensemble de la zone holarctique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Espèces européennes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>17 espèces ont été décrites en Europe[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17 espèces ont été décrites en Europe.
 Abax carinatus (Duftschmid 1812)
 Abax schueppeli Palliardi 1825
 Abax arerae Schauberger 1927
@@ -558,9 +572,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (28 août 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (28 août 2014) :
 Abax arerae
 Abax baenningeri
 Abax beckenhauptii
@@ -579,9 +595,9 @@
 Abax sexualis
 Abax springeri
 Abax teriolensis
-Selon ITIS      (28 août 2014)[4] :
+Selon ITIS      (28 août 2014) :
 sous-genre Abax (Abax) Bonelli, 1810
-Selon NCBI  (28 août 2014)[5] :
+Selon NCBI  (28 août 2014) :
 Abax angustatus
 Abax beckenhauptii
 Abax carinatus
